--- a/项目计划跟进表.xlsx
+++ b/项目计划跟进表.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+  <si>
+    <t>类别</t>
+  </si>
   <si>
     <t>时间</t>
   </si>
   <si>
     <t>文件</t>
+  </si>
+  <si>
+    <t>基本知识</t>
   </si>
   <si>
     <t>基本概念.md</t>
@@ -34,10 +40,16 @@
     <t>常用的编辑器设置.md</t>
   </si>
   <si>
+    <t>编译C/C++</t>
+  </si>
+  <si>
     <t>编译CPlusPlus代码.md</t>
   </si>
   <si>
     <t>编译CPlusPlus代码2.md</t>
+  </si>
+  <si>
+    <t>CPlusPlus实战.md</t>
   </si>
 </sst>
 </file>
@@ -50,14 +62,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +230,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -382,12 +393,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,158 +524,170 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -992,115 +1009,153 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="11.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="22.9285714285714" customWidth="1"/>
+    <col min="1" max="1" width="12.3571428571429" customWidth="1"/>
+    <col min="2" max="2" width="11.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="22.9285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
         <v>45396</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2">
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
         <v>45396</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2">
+      <c r="B4" s="3">
         <v>45396</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2">
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
         <v>45396</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2">
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6">
         <v>45396</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2">
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6">
         <v>45396</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C7" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6">
+        <v>45397</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目计划跟进表.xlsx
+++ b/项目计划跟进表.xlsx
@@ -4,52 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13660"/>
+    <workbookView windowWidth="28800" windowHeight="11980"/>
   </bookViews>
   <sheets>
-    <sheet name="Vscode" sheetId="1" r:id="rId1"/>
+    <sheet name="总体" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
-  <si>
-    <t>类别</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>时间</t>
   </si>
   <si>
-    <t>文件</t>
+    <t>事情</t>
   </si>
   <si>
-    <t>基本知识</t>
-  </si>
-  <si>
-    <t>基本概念.md</t>
-  </si>
-  <si>
-    <t>好用的插件.md</t>
-  </si>
-  <si>
-    <t>常用网站.md</t>
-  </si>
-  <si>
-    <t>常用的编辑器设置.md</t>
-  </si>
-  <si>
-    <t>编译C/C++</t>
-  </si>
-  <si>
-    <t>编译CPlusPlus代码.md</t>
-  </si>
-  <si>
-    <t>编译CPlusPlus代码2.md</t>
-  </si>
-  <si>
-    <t>CPlusPlus实战.md</t>
+    <t>添加汇编模块代码</t>
   </si>
 </sst>
 </file>
@@ -230,169 +203,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,7 +518,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -569,16 +542,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -587,78 +560,78 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -669,25 +642,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1009,153 +970,67 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.3571428571429" customWidth="1"/>
-    <col min="2" max="2" width="11.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="22.9285714285714" customWidth="1"/>
+    <col min="1" max="1" width="11.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="22.9285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3">
-        <v>45396</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3">
-        <v>45396</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>45396</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>45396</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="6">
-        <v>45396</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>9</v>
-      </c>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="6">
-        <v>45396</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>10</v>
-      </c>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6">
-        <v>45397</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>11</v>
-      </c>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目计划跟进表.xlsx
+++ b/项目计划跟进表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11980"/>
+    <workbookView windowWidth="28800" windowHeight="11960"/>
   </bookViews>
   <sheets>
     <sheet name="总体" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>时间</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>添加汇编模块代码</t>
+  </si>
+  <si>
+    <t>添加对象模型文档</t>
   </si>
 </sst>
 </file>
@@ -975,7 +978,7 @@
     <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
@@ -1001,8 +1004,12 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="2">
+        <v>45427</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3"/>
